--- a/SICSA/16 GUIAS DE USUARIO/Matriz de guias/Marriz de guias de usuario SICSA.xlsx
+++ b/SICSA/16 GUIAS DE USUARIO/Matriz de guias/Marriz de guias de usuario SICSA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CATALOGOS</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>MODULO</t>
+  </si>
+  <si>
+    <t>ESTATUS</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,9 +169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,129 +459,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E15"/>
+  <dimension ref="C2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:C15"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
